--- a/inst/Example_Chile_Hake.xlsx
+++ b/inst/Example_Chile_Hake.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\DLMtool\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arhor\Documents\GitHub\DLMtool\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -362,13 +362,40 @@
   </si>
   <si>
     <t>LenMbiascv</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Merluccius gayi gayi</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>SUBPESCA</t>
+  </si>
+  <si>
+    <t>Reduced number for demonstration purposes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +445,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -440,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -452,6 +485,9 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +507,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AE37E10-657C-4A4F-A847-0C0BD77C6FA9}" name="Table3" displayName="Table3" ref="A1:C32" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AE37E10-657C-4A4F-A847-0C0BD77C6FA9}" name="Table3" displayName="Table3" ref="A1:C33" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DADCC3AD-4B5F-4A7E-BD98-F7CBEA65EAB6}" name="Slot"/>
     <tableColumn id="2" xr3:uid="{FA5D409C-1457-4647-931B-71E61908547B}" name="Column1"/>
@@ -778,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,274 +850,270 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>23</v>
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.26</v>
-      </c>
-      <c r="C5">
-        <v>0.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.26</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
-      </c>
-      <c r="C12">
-        <v>0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
+        <v>0.4</v>
+      </c>
+      <c r="C13">
         <v>0.6</v>
-      </c>
-      <c r="C13">
-        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="C14">
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>69.27</v>
-      </c>
-      <c r="C16">
-        <v>78.099999999999994</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>0.14000000000000001</v>
+        <v>69.27</v>
       </c>
       <c r="C17">
-        <v>0.2</v>
+        <v>78.099999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>-0.65700000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C18">
-        <v>-0.23200000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>0.1</v>
+        <v>-0.65700000000000003</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>-0.23200000000000001</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B20">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C20">
-        <v>0.1</v>
-      </c>
+        <v>0.12</v>
+      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
       <c r="C21">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>2.5000000000000001E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="C22">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>-0.01</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>37.4</v>
+        <v>-0.01</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>0.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>1.5999999999999999E-5</v>
+        <v>0.15</v>
+      </c>
+      <c r="C27">
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>2.77</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>1.5999999999999999E-5</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
-      </c>
-      <c r="C29">
-        <v>0.5</v>
+        <v>2.77</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>0.5</v>
@@ -1089,26 +1121,38 @@
       <c r="C30">
         <v>0.5</v>
       </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2339,7 +2383,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,10 +2410,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C3" s="7">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2377,10 +2421,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="7">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2388,10 +2432,10 @@
         <v>103</v>
       </c>
       <c r="B5" s="7">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C5" s="7">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2399,10 +2443,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="7">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="C6" s="7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2410,10 +2454,10 @@
         <v>54</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2421,10 +2465,10 @@
         <v>55</v>
       </c>
       <c r="B8" s="7">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2434,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAE3F1A-90BF-4F3A-B6A0-6C07DD5D0F91}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,58 +2505,93 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="B5" s="9">
+        <v>-33.290999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6">
-        <v>0.5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
+        <v>109</v>
+      </c>
+      <c r="B6" s="9">
+        <v>-72.58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B8">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>77</v>
       </c>
     </row>
